--- a/src/main/resources/notepad/mysql锁.xlsx
+++ b/src/main/resources/notepad/mysql锁.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC53EFF-7299-4707-B975-BD6D41CA127B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA16723-168C-40F7-9545-EDDED30E3987}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
   <si>
     <t>insert into testmysam value(4); #等待</t>
   </si>
@@ -193,6 +193,60 @@
   </si>
   <si>
     <t>2、insert，delete，update在事务中都会自动默认加上排它锁（写锁）。</t>
+  </si>
+  <si>
+    <t>实验记录</t>
+  </si>
+  <si>
+    <t>查找当前的锁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select * from information_schema.INNODB_LOCKS; </t>
+  </si>
+  <si>
+    <t>#在mysql5.7里面才有这个库（5.8---&gt;8）</t>
+  </si>
+  <si>
+    <t>SELECT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r.trx_id waiting_trx_id,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r.trx_mysql_thread_id waiting_thread,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r.trx_query waiting_query,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  b.trx_id blocking_trx_id,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  b.trx_mysql_thread_id blocking_thread</t>
+  </si>
+  <si>
+    <t>FROM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  information_schema.innodb_lock_waits w</t>
+  </si>
+  <si>
+    <t>INNER JOIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  information_schema.innodb_trx b ON b.trx_id = w.blocking_trx_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  information_schema.innodb_trx r ON r.trx_id = w.requesting_trx_id;</t>
+  </si>
+  <si>
+    <t>#mysql5.6</t>
+  </si>
+  <si>
+    <t>锁</t>
+  </si>
+  <si>
+    <t>事务</t>
   </si>
 </sst>
 </file>
@@ -245,7 +299,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -277,13 +331,102 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -299,15 +442,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -334,15 +477,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>4763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>92433</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -749,172 +892,448 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6576981-1F06-4FF4-B8E4-3BC0F192BE95}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B2" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="9" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B10" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B10" s="9" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C11" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C12" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C13" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B17" s="9" t="s">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B20" s="11" t="s">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C21" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B22" s="9" t="s">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C23" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="D24" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C23" t="s">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="E25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C24" t="s">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="E26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C26" t="s">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="E28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C27" s="1" t="s">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="E29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C28" s="1" t="s">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="E30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B30" s="9" t="s">
+    <row r="32" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="D32" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C31" t="s">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C32" t="s">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C34" t="s">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E36" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C35" s="1" t="s">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E37" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C36" s="1" t="s">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E38" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B38" s="9" t="s">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D40" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C39" t="s">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E41" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C40" t="s">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E42" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C42" t="s">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E44" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C43" t="s">
+    <row r="45" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E45" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C45" s="10" t="s">
+    <row r="47" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E47" s="4" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="4:20" x14ac:dyDescent="0.45">
+      <c r="D49" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="4:20" x14ac:dyDescent="0.45">
+      <c r="E50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="4:20" x14ac:dyDescent="0.45">
+      <c r="E51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="4:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="4:20" x14ac:dyDescent="0.45">
+      <c r="E54" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="13"/>
+      <c r="R54" s="13"/>
+      <c r="S54" s="13"/>
+      <c r="T54" s="14"/>
+    </row>
+    <row r="55" spans="4:20" x14ac:dyDescent="0.45">
+      <c r="E55" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="16"/>
+      <c r="R55" s="16"/>
+      <c r="S55" s="16"/>
+      <c r="T55" s="17"/>
+    </row>
+    <row r="56" spans="4:20" x14ac:dyDescent="0.45">
+      <c r="E56" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="16"/>
+      <c r="Q56" s="16"/>
+      <c r="R56" s="16"/>
+      <c r="S56" s="16"/>
+      <c r="T56" s="17"/>
+    </row>
+    <row r="57" spans="4:20" x14ac:dyDescent="0.45">
+      <c r="E57" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="16"/>
+      <c r="R57" s="16"/>
+      <c r="S57" s="16"/>
+      <c r="T57" s="17"/>
+    </row>
+    <row r="58" spans="4:20" x14ac:dyDescent="0.45">
+      <c r="E58" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="16"/>
+      <c r="P58" s="16"/>
+      <c r="Q58" s="16"/>
+      <c r="R58" s="16"/>
+      <c r="S58" s="16"/>
+      <c r="T58" s="17"/>
+    </row>
+    <row r="59" spans="4:20" x14ac:dyDescent="0.45">
+      <c r="E59" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="16"/>
+      <c r="O59" s="16"/>
+      <c r="P59" s="16"/>
+      <c r="Q59" s="16"/>
+      <c r="R59" s="16"/>
+      <c r="S59" s="16"/>
+      <c r="T59" s="17"/>
+    </row>
+    <row r="60" spans="4:20" x14ac:dyDescent="0.45">
+      <c r="E60" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="16"/>
+      <c r="N60" s="16"/>
+      <c r="O60" s="16"/>
+      <c r="P60" s="16"/>
+      <c r="Q60" s="16"/>
+      <c r="R60" s="16"/>
+      <c r="S60" s="16"/>
+      <c r="T60" s="17"/>
+    </row>
+    <row r="61" spans="4:20" x14ac:dyDescent="0.45">
+      <c r="E61" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="16"/>
+      <c r="N61" s="16"/>
+      <c r="O61" s="16"/>
+      <c r="P61" s="16"/>
+      <c r="Q61" s="16"/>
+      <c r="R61" s="16"/>
+      <c r="S61" s="16"/>
+      <c r="T61" s="17"/>
+    </row>
+    <row r="62" spans="4:20" x14ac:dyDescent="0.45">
+      <c r="E62" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="16"/>
+      <c r="N62" s="16"/>
+      <c r="O62" s="16"/>
+      <c r="P62" s="16"/>
+      <c r="Q62" s="16"/>
+      <c r="R62" s="16"/>
+      <c r="S62" s="16"/>
+      <c r="T62" s="17"/>
+    </row>
+    <row r="63" spans="4:20" x14ac:dyDescent="0.45">
+      <c r="E63" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="16"/>
+      <c r="N63" s="16"/>
+      <c r="O63" s="16"/>
+      <c r="P63" s="16"/>
+      <c r="Q63" s="16"/>
+      <c r="R63" s="16"/>
+      <c r="S63" s="16"/>
+      <c r="T63" s="17"/>
+    </row>
+    <row r="64" spans="4:20" x14ac:dyDescent="0.45">
+      <c r="E64" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="16"/>
+      <c r="M64" s="16"/>
+      <c r="N64" s="16"/>
+      <c r="O64" s="16"/>
+      <c r="P64" s="16"/>
+      <c r="Q64" s="16"/>
+      <c r="R64" s="16"/>
+      <c r="S64" s="16"/>
+      <c r="T64" s="17"/>
+    </row>
+    <row r="65" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E65" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="19"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="19"/>
+      <c r="O65" s="19"/>
+      <c r="P65" s="19"/>
+      <c r="Q65" s="19"/>
+      <c r="R65" s="19"/>
+      <c r="S65" s="19"/>
+      <c r="T65" s="20"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A68" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -935,118 +1354,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/src/main/resources/notepad/mysql锁.xlsx
+++ b/src/main/resources/notepad/mysql锁.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA16723-168C-40F7-9545-EDDED30E3987}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69D082D-D221-464C-B5D8-C6CDD28F1B2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3330" yWindow="3480" windowWidth="15593" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="笔记" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="66">
   <si>
     <t>insert into testmysam value(4); #等待</t>
   </si>
@@ -247,6 +247,12 @@
   </si>
   <si>
     <t>事务</t>
+  </si>
+  <si>
+    <t>为什么需要事务？</t>
+  </si>
+  <si>
+    <t>只有innoDB的存储引擎支持事务</t>
   </si>
 </sst>
 </file>
@@ -424,6 +430,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -442,15 +457,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -517,6 +523,195 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>205105</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文本框 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38D1BDA2-EDB5-4CDB-B9A9-B95FDC37BB91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="514350" y="12496800"/>
+          <a:ext cx="9720580" cy="1476375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="threePt" dir="t"/>
+          </a:scene3d>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>现在的很多软件都是多用户，多程序，多线程的，对同一个表可能同时有很多人在用，为保持数据的一致性，所以提出了事务的概念。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="6E747A">
+                  <a:alpha val="43000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>A 给B 要划钱，A 的账户-1000元， B 的账户就要+1000元，这两个update 语句必须作为一个整体来执行，不然A 扣钱了，B 没有加钱这种情况很难处理。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -892,10 +1087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6576981-1F06-4FF4-B8E4-3BC0F192BE95}">
-  <dimension ref="A1:T68"/>
+  <dimension ref="A1:T79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="Y80" sqref="Y80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1086,248 +1281,258 @@
       </c>
     </row>
     <row r="54" spans="4:20" x14ac:dyDescent="0.45">
-      <c r="E54" s="12" t="s">
+      <c r="E54" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="13"/>
-      <c r="O54" s="13"/>
-      <c r="P54" s="13"/>
-      <c r="Q54" s="13"/>
-      <c r="R54" s="13"/>
-      <c r="S54" s="13"/>
-      <c r="T54" s="14"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="8"/>
     </row>
     <row r="55" spans="4:20" x14ac:dyDescent="0.45">
-      <c r="E55" s="15" t="s">
+      <c r="E55" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="16"/>
-      <c r="O55" s="16"/>
-      <c r="P55" s="16"/>
-      <c r="Q55" s="16"/>
-      <c r="R55" s="16"/>
-      <c r="S55" s="16"/>
-      <c r="T55" s="17"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="10"/>
+      <c r="T55" s="11"/>
     </row>
     <row r="56" spans="4:20" x14ac:dyDescent="0.45">
-      <c r="E56" s="15" t="s">
+      <c r="E56" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="16"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16"/>
-      <c r="Q56" s="16"/>
-      <c r="R56" s="16"/>
-      <c r="S56" s="16"/>
-      <c r="T56" s="17"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="10"/>
+      <c r="S56" s="10"/>
+      <c r="T56" s="11"/>
     </row>
     <row r="57" spans="4:20" x14ac:dyDescent="0.45">
-      <c r="E57" s="15" t="s">
+      <c r="E57" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="16"/>
-      <c r="L57" s="16"/>
-      <c r="M57" s="16"/>
-      <c r="N57" s="16"/>
-      <c r="O57" s="16"/>
-      <c r="P57" s="16"/>
-      <c r="Q57" s="16"/>
-      <c r="R57" s="16"/>
-      <c r="S57" s="16"/>
-      <c r="T57" s="17"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
+      <c r="R57" s="10"/>
+      <c r="S57" s="10"/>
+      <c r="T57" s="11"/>
     </row>
     <row r="58" spans="4:20" x14ac:dyDescent="0.45">
-      <c r="E58" s="15" t="s">
+      <c r="E58" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="16"/>
-      <c r="N58" s="16"/>
-      <c r="O58" s="16"/>
-      <c r="P58" s="16"/>
-      <c r="Q58" s="16"/>
-      <c r="R58" s="16"/>
-      <c r="S58" s="16"/>
-      <c r="T58" s="17"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="10"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="11"/>
     </row>
     <row r="59" spans="4:20" x14ac:dyDescent="0.45">
-      <c r="E59" s="15" t="s">
+      <c r="E59" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="16"/>
-      <c r="L59" s="16"/>
-      <c r="M59" s="16"/>
-      <c r="N59" s="16"/>
-      <c r="O59" s="16"/>
-      <c r="P59" s="16"/>
-      <c r="Q59" s="16"/>
-      <c r="R59" s="16"/>
-      <c r="S59" s="16"/>
-      <c r="T59" s="17"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="10"/>
+      <c r="R59" s="10"/>
+      <c r="S59" s="10"/>
+      <c r="T59" s="11"/>
     </row>
     <row r="60" spans="4:20" x14ac:dyDescent="0.45">
-      <c r="E60" s="15" t="s">
+      <c r="E60" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="16"/>
-      <c r="L60" s="16"/>
-      <c r="M60" s="16"/>
-      <c r="N60" s="16"/>
-      <c r="O60" s="16"/>
-      <c r="P60" s="16"/>
-      <c r="Q60" s="16"/>
-      <c r="R60" s="16"/>
-      <c r="S60" s="16"/>
-      <c r="T60" s="17"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="11"/>
     </row>
     <row r="61" spans="4:20" x14ac:dyDescent="0.45">
-      <c r="E61" s="15" t="s">
+      <c r="E61" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="16"/>
-      <c r="L61" s="16"/>
-      <c r="M61" s="16"/>
-      <c r="N61" s="16"/>
-      <c r="O61" s="16"/>
-      <c r="P61" s="16"/>
-      <c r="Q61" s="16"/>
-      <c r="R61" s="16"/>
-      <c r="S61" s="16"/>
-      <c r="T61" s="17"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="10"/>
+      <c r="Q61" s="10"/>
+      <c r="R61" s="10"/>
+      <c r="S61" s="10"/>
+      <c r="T61" s="11"/>
     </row>
     <row r="62" spans="4:20" x14ac:dyDescent="0.45">
-      <c r="E62" s="15" t="s">
+      <c r="E62" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="16"/>
-      <c r="L62" s="16"/>
-      <c r="M62" s="16"/>
-      <c r="N62" s="16"/>
-      <c r="O62" s="16"/>
-      <c r="P62" s="16"/>
-      <c r="Q62" s="16"/>
-      <c r="R62" s="16"/>
-      <c r="S62" s="16"/>
-      <c r="T62" s="17"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="10"/>
+      <c r="Q62" s="10"/>
+      <c r="R62" s="10"/>
+      <c r="S62" s="10"/>
+      <c r="T62" s="11"/>
     </row>
     <row r="63" spans="4:20" x14ac:dyDescent="0.45">
-      <c r="E63" s="15" t="s">
+      <c r="E63" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="16"/>
-      <c r="L63" s="16"/>
-      <c r="M63" s="16"/>
-      <c r="N63" s="16"/>
-      <c r="O63" s="16"/>
-      <c r="P63" s="16"/>
-      <c r="Q63" s="16"/>
-      <c r="R63" s="16"/>
-      <c r="S63" s="16"/>
-      <c r="T63" s="17"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="10"/>
+      <c r="Q63" s="10"/>
+      <c r="R63" s="10"/>
+      <c r="S63" s="10"/>
+      <c r="T63" s="11"/>
     </row>
     <row r="64" spans="4:20" x14ac:dyDescent="0.45">
-      <c r="E64" s="15" t="s">
+      <c r="E64" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="16"/>
-      <c r="K64" s="16"/>
-      <c r="L64" s="16"/>
-      <c r="M64" s="16"/>
-      <c r="N64" s="16"/>
-      <c r="O64" s="16"/>
-      <c r="P64" s="16"/>
-      <c r="Q64" s="16"/>
-      <c r="R64" s="16"/>
-      <c r="S64" s="16"/>
-      <c r="T64" s="17"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="10"/>
+      <c r="Q64" s="10"/>
+      <c r="R64" s="10"/>
+      <c r="S64" s="10"/>
+      <c r="T64" s="11"/>
     </row>
     <row r="65" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E65" s="18" t="s">
+      <c r="E65" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="19"/>
-      <c r="K65" s="19"/>
-      <c r="L65" s="19"/>
-      <c r="M65" s="19"/>
-      <c r="N65" s="19"/>
-      <c r="O65" s="19"/>
-      <c r="P65" s="19"/>
-      <c r="Q65" s="19"/>
-      <c r="R65" s="19"/>
-      <c r="S65" s="19"/>
-      <c r="T65" s="20"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="13"/>
+      <c r="O65" s="13"/>
+      <c r="P65" s="13"/>
+      <c r="Q65" s="13"/>
+      <c r="R65" s="13"/>
+      <c r="S65" s="13"/>
+      <c r="T65" s="14"/>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="B69" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="B79" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1354,106 +1559,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="15"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
